--- a/medicine/Enfance/Hans_Ament/Hans_Ament.xlsx
+++ b/medicine/Enfance/Hans_Ament/Hans_Ament.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hans Max[1] Ament (15 février 1934, Vienne, Autriche - 4 juin 1944) est un des 44 enfants d'Izieu arrêtés lors de la Rafle du 6 avril 1944, déportés et assassinés à Auschwitz. Sa famille avait reçu en mars 1940 un visa pour les États-Unis mais attendit en vain des places sur un bateau pour fuir la Shoah. Il meurt à l'âge de 10 ans.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans Max Ament (15 février 1934, Vienne, Autriche - 4 juin 1944) est un des 44 enfants d'Izieu arrêtés lors de la Rafle du 6 avril 1944, déportés et assassinés à Auschwitz. Sa famille avait reçu en mars 1940 un visa pour les États-Unis mais attendit en vain des places sur un bateau pour fuir la Shoah. Il meurt à l'âge de 10 ans.
 </t>
         </is>
       </c>
@@ -513,42 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vienne (Autriche)
-Hans Ament est né le 15 février 1934 à Vienne, en Autriche[2],[3].
-Son père, Max Ament, est né le 28 juin 1895, à Sanok, en Pologne[4]. Sa mère est Ernestina[5](Ernestine) Ament, née en Hongrie[6].
+          <t>Vienne (Autriche)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans Ament est né le 15 février 1934 à Vienne, en Autriche,.
+Son père, Max Ament, est né le 28 juin 1895, à Sanok, en Pologne. Sa mère est Ernestina(Ernestine) Ament, née en Hongrie.
 Le père est un fabricant à Vienne, en Autriche.
-Il a un frère aîné, Alfred Ament. né le 15 septembre 1927[7], à Vienne, en Autriche.
-Le grand frère lui apprend à se servir de sa bicyclette[2].
-Belgique
-Hans Ament a 4 ans quand les Allemands annexent l'Autriche. En décembre 1938[8] ou au début 1939[6], la famille se réfugie à Anvers[4]. en Belgique, et fait une application pour des visas pour les États-Unis. Ils reçoivent ces documents en mars 1940[6], mais sont en attente pour un bateau qui puisse les emmener en Amérique.
-Il va à l'école et apprend vite le flamand[2].
-France
-1940
-En mai 1940, les Allemands envahissent la Belgique.
-La famille Ament arrive à Paris au printemps 1940[8].
-Le père de Hans Ament, qui possède un passeport allemand, est arrêté et envoyé au camp de Rivesaltes[4].
-1941
-Au printemps de 1941, la mère de Hans Ament vend la collection de timbres de son fils aîné pour pouvoir se nourrir. Elle vend, plus tard, sa bague de fiançailles.
-Lorsque la famille reçoit l'ordre de se rapporter pour la déportation dans un "camp de resettlement", ils fuient vers Marseille, alors en zone libre.
-Ernestina Ament avait choisi d'aller à Marseille avec ses enfants dans l'espoir de retrouver son mari. Max Ament avait demandé un transfert au Camp des Milles, près d'Aix-en-Provence. Il reçoit l'autorisation d'aller les rencontrer à la gare puis retourne au camp[8].
-À Marseille, Hans va à l'école publique et apprend le Français.
-1942
-En 1942, Ernestine Ament est atteinte de la tuberculose[8].
-1943
-Au début de 1943, son père, est transféré du camp des Milles vers le camp de Drancy[9].
-Max Ament est déporté par le convoi no 50, en date du 4 mars 1943, du camp de Drancy vers Sobibor ou Maidanek[4].
-Hans est envoyé à la Maison d'Izieu. Son frère est placé dans une maison pour adolescents[2].
-Hans Ament arrive à Izieu, le 21 septembre 1943[10].
-1944
-Sa mère est hospitalisée le 23 mars 1944[5].
-Âgé de 10 ans,il est arrêté avec les autres enfants d'Izieu[11], dans la Rafle du 6 avril 1944.
-Il est déporté par le convoi no 75, en date du 30 mai 1944, du camp de Drancy vers Auschwitz[12].
-Il est assassiné le 4 juin 1944 à Auschwitz[13].
-Sa mère est morte à Hauteville, Ain, le 7 août 1944[5]. Elle était dans la section prison de l'hôpital, car elle était juive[8].
-Son frère, Alfred Ament, est emmené en Suisse, en mars 1944[9]
-, clandestinement, par l'Œuvre de secours aux enfants[6].
-Après la guerre
-Alfred Ament survit à la Shoah et immigre, après la guerre[6], aux États-Unis[5]. Il devient un témoin de la Shoah.
+Il a un frère aîné, Alfred Ament. né le 15 septembre 1927, à Vienne, en Autriche.
+Le grand frère lui apprend à se servir de sa bicyclette.
 </t>
         </is>
       </c>
@@ -574,12 +561,308 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans Ament a 4 ans quand les Allemands annexent l'Autriche. En décembre 1938 ou au début 1939, la famille se réfugie à Anvers. en Belgique, et fait une application pour des visas pour les États-Unis. Ils reçoivent ces documents en mars 1940, mais sont en attente pour un bateau qui puisse les emmener en Amérique.
+Il va à l'école et apprend vite le flamand.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hans_Ament</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Ament</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 1940, les Allemands envahissent la Belgique.
+La famille Ament arrive à Paris au printemps 1940.
+Le père de Hans Ament, qui possède un passeport allemand, est arrêté et envoyé au camp de Rivesaltes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hans_Ament</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Ament</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au printemps de 1941, la mère de Hans Ament vend la collection de timbres de son fils aîné pour pouvoir se nourrir. Elle vend, plus tard, sa bague de fiançailles.
+Lorsque la famille reçoit l'ordre de se rapporter pour la déportation dans un "camp de resettlement", ils fuient vers Marseille, alors en zone libre.
+Ernestina Ament avait choisi d'aller à Marseille avec ses enfants dans l'espoir de retrouver son mari. Max Ament avait demandé un transfert au Camp des Milles, près d'Aix-en-Provence. Il reçoit l'autorisation d'aller les rencontrer à la gare puis retourne au camp.
+À Marseille, Hans va à l'école publique et apprend le Français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hans_Ament</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Ament</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1942, Ernestine Ament est atteinte de la tuberculose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hans_Ament</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Ament</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début de 1943, son père, est transféré du camp des Milles vers le camp de Drancy.
+Max Ament est déporté par le convoi no 50, en date du 4 mars 1943, du camp de Drancy vers Sobibor ou Maidanek.
+Hans est envoyé à la Maison d'Izieu. Son frère est placé dans une maison pour adolescents.
+Hans Ament arrive à Izieu, le 21 septembre 1943.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hans_Ament</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Ament</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa mère est hospitalisée le 23 mars 1944.
+Âgé de 10 ans,il est arrêté avec les autres enfants d'Izieu, dans la Rafle du 6 avril 1944.
+Il est déporté par le convoi no 75, en date du 30 mai 1944, du camp de Drancy vers Auschwitz.
+Il est assassiné le 4 juin 1944 à Auschwitz.
+Sa mère est morte à Hauteville, Ain, le 7 août 1944. Elle était dans la section prison de l'hôpital, car elle était juive.
+Son frère, Alfred Ament, est emmené en Suisse, en mars 1944
+, clandestinement, par l'Œuvre de secours aux enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hans_Ament</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Ament</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Après la guerre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Ament survit à la Shoah et immigre, après la guerre, aux États-Unis. Il devient un témoin de la Shoah.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hans_Ament</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Ament</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Lettre à sa mère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une lettre, accompagnée de son dessin en couleur, de Hans Ament à sa mère, Ernestina Ament, souffrant de la tuberculose, et confinée au sanatorium L'Espérance[5] de Hauteville (Ain), près d'Izieu[14],[15],[16].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une lettre, accompagnée de son dessin en couleur, de Hans Ament à sa mère, Ernestina Ament, souffrant de la tuberculose, et confinée au sanatorium L'Espérance de Hauteville (Ain), près d'Izieu.
 Le texte de la lettre suit, avec l'orthographe inchangée :
 « Chère maman,
 J'ai reçu ta lettre qui me fait plaisir et je
@@ -592,7 +875,7 @@
 je suis en bonne santé. esqu'il fait froid chez toi
 et écrit moi si il neige, quand il y avait beaucoup
 de neige ici on allait faire de la luge
-à des pente. on s'amusait très bien. écrit à fredy[17]
+à des pente. on s'amusait très bien. écrit à fredy
 qu'il doit pas m'écrire en allemang. a la
 colonie il y a un beau chien nome Tomi
 l'école est dans la maison il y à une maitresse
